--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -33,13 +33,13 @@
     <t>IAS/MACH rotary verbeteren</t>
   </si>
   <si>
+    <t>Zorgen dat ALT altijd op 0 komt bij draaien naar links</t>
+  </si>
+  <si>
+    <t>MCP black at startup</t>
+  </si>
+  <si>
     <t>TEST</t>
-  </si>
-  <si>
-    <t>Zorgen dat ALT altijd op 0 komt bij draaien naar links</t>
-  </si>
-  <si>
-    <t>MCP black at startup</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +406,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -424,7 +424,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
